--- a/数据表格/noisec_cali.xlsx
+++ b/数据表格/noisec_cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/AA6E1FCBDC78CA83/资料/项目/海泰/ISP/CCM_endoscope/数据表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6956AAB6-3DE0-44F8-B6DA-C40032032056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{6956AAB6-3DE0-44F8-B6DA-C40032032056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7E55E8-56AB-4EAD-B217-6642452B62CA}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4900" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{31F05B00-90B3-40EA-8089-897AE8FAD6F0}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="dark-g" sheetId="1" r:id="rId1"/>
     <sheet name="noise" sheetId="2" r:id="rId2"/>
     <sheet name="cali" sheetId="3" r:id="rId3"/>
+    <sheet name="dark-noise" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>增益g</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +91,26 @@
   </si>
   <si>
     <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1610,6 +1631,1161 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.899759405074366E-2"/>
+          <c:y val="0.12265055409740447"/>
+          <c:w val="0.89022462817147852"/>
+          <c:h val="0.71220691163604555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21082217847769033"/>
+                  <c:y val="2.7939632545931757E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cali!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cali!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6442999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1770999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4588000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1267999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6059000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5E5-43D9-9AA8-CD21D92F473D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="855024936"/>
+        <c:axId val="855023952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="855024936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855023952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="855023952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855024936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cali!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cali!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100.35156600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.909100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.557151999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.561612999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.27271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.9909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CDD-41CE-AC34-10D63808F69E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="872145320"/>
+        <c:axId val="872147288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="872145320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872147288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="872147288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872145320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22471106736657917"/>
+                  <c:y val="2.7972007554675597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cali!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cali!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F11A-42C8-9EB1-777357F6F7A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1023298240"/>
+        <c:axId val="1023298568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1023298240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023298568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1023298568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023298240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1770,6 +2946,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3319,6 +4615,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3956,16 +6800,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3985,6 +6829,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64516B7-2599-4A45-97DE-5DCFC67D0DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D88AEEE-FEB9-46E8-A39F-7B6429AC7473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA0CE30-2E88-4EF3-B076-125134FBEEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4754,94 +7706,373 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4576A09B-D3E7-4366-B795-5F2D93A2144C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+      <selection activeCell="O2" sqref="O2:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>4.1167999999999996</v>
+      </c>
+      <c r="C2">
+        <v>-150.9768</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>3.6442999999999999</v>
+      </c>
+      <c r="G2">
+        <v>100.35156600000001</v>
+      </c>
+      <c r="H2">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>4.12</v>
+      </c>
+      <c r="L2">
+        <v>100.35156600000001</v>
+      </c>
+      <c r="M2">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3.6505000000000001</v>
+      </c>
+      <c r="C3">
+        <v>-202.13679999999999</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>3.1770999999999998</v>
+      </c>
+      <c r="G3">
+        <v>41.909100000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>3.1770999999999998</v>
+      </c>
+      <c r="L3">
+        <v>41.909100000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3.1057000000000001</v>
+      </c>
+      <c r="C4">
+        <v>-93.647300000000001</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2.8108</v>
+      </c>
+      <c r="G4">
+        <v>19.557151999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>2.8108</v>
+      </c>
+      <c r="L4">
+        <v>19.557151999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.774</v>
+      </c>
+      <c r="C5">
+        <v>-106.81140000000001</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2.4588000000000001</v>
+      </c>
+      <c r="G5">
+        <v>11.561612999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>2.4588000000000001</v>
+      </c>
+      <c r="L5">
+        <v>11.561612999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.3656000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-73.236800000000002</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2.1267999999999998</v>
+      </c>
+      <c r="G6">
+        <v>10.27271</v>
+      </c>
+      <c r="H6">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2.1267999999999998</v>
+      </c>
+      <c r="L6">
+        <v>10.27271</v>
+      </c>
+      <c r="M6">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1.8996</v>
+      </c>
+      <c r="C7">
+        <v>-53.782200000000003</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1.6059000000000001</v>
+      </c>
+      <c r="G7">
+        <v>10.9909</v>
+      </c>
+      <c r="H7">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1.6059000000000001</v>
+      </c>
+      <c r="L7">
+        <v>10.9909</v>
+      </c>
+      <c r="M7">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7B5E04-4962-478B-9455-9FB0577AAF93}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>4.1167999999999996</v>
-      </c>
-      <c r="C2">
-        <v>-150.9768</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>3.6505000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-202.13679999999999</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3.1057000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-93.647300000000001</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2.774</v>
-      </c>
-      <c r="C5">
-        <v>-106.81140000000001</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2.3656000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-73.236800000000002</v>
-      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1.8996</v>
-      </c>
-      <c r="C7">
-        <v>-53.782200000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据表格/noisec_cali.xlsx
+++ b/数据表格/noisec_cali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/AA6E1FCBDC78CA83/资料/项目/海泰/ISP/CCM_endoscope/数据表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{6956AAB6-3DE0-44F8-B6DA-C40032032056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7E55E8-56AB-4EAD-B217-6642452B62CA}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{6956AAB6-3DE0-44F8-B6DA-C40032032056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE185FB-C09E-44E1-AC1D-F89EF2661703}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4900" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{31F05B00-90B3-40EA-8089-897AE8FAD6F0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>增益g</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t xml:space="preserve">                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'dark-g'!$B$2:$B$8</c:f>
+              <c:f>'dark-g'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -287,7 +291,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dark-g'!$D$2:$D$8</c:f>
+              <c:f>'dark-g'!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -588,7 +592,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'dark-g'!$B$2:$B$8</c:f>
+              <c:f>'dark-g'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -618,7 +622,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dark-g'!$C$2:$C$8</c:f>
+              <c:f>'dark-g'!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1385,7 +1389,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>cali!$A$2:$A$7</c:f>
+              <c:f>cali!$A$22:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1412,27 +1416,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cali!$B$2:$B$7</c:f>
+              <c:f>cali!$B$22:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.1167999999999996</c:v>
+                  <c:v>3.839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6505000000000001</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1057000000000001</c:v>
+                  <c:v>3.073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.774</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3656000000000001</c:v>
+                  <c:v>2.3069000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8996</c:v>
+                  <c:v>1.7549999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,6 +2790,419 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25991272965879264"/>
+                  <c:y val="-2.351997666958297E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cali!$A$18:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cali!$B$18:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.3315999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3069000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3754999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96492999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A34-4D00-A1FD-326AA2F4D50C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="999000080"/>
+        <c:axId val="998993848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="999000080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998993848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="998993848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="999000080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3066,6 +3483,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6163,6 +6620,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6808,7 +7781,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6844,7 +7817,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6873,15 +7846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>631825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6908,16 +7881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6937,6 +7910,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D838AFCE-23CE-47D3-B949-0E1B325A0A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7242,10 +8251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB03029B-6EC2-4437-8F4F-EA8F7B282E58}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7266,79 +8275,101 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>3.0179999999999998</v>
       </c>
       <c r="D2">
-        <f>5.44*5.44</f>
-        <v>29.593600000000006</v>
+        <v>20.827000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.26</v>
+        <v>3.2719999999999998</v>
       </c>
       <c r="D3">
-        <v>31.09</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4.3499999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D4">
-        <v>32.75</v>
+        <f>5.44*5.44</f>
+        <v>29.593600000000006</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="D5">
-        <v>34.33</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.74</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D6">
-        <v>35.549999999999997</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="D7">
-        <v>38.26</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4.74</v>
+      </c>
+      <c r="D8">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4.8</v>
+      </c>
+      <c r="D9">
+        <v>38.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>5.19</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>42.12</v>
       </c>
     </row>
@@ -7706,27 +8737,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4576A09B-D3E7-4366-B795-5F2D93A2144C}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P7"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>12</v>
       </c>
@@ -7752,16 +8776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>4.1167999999999996</v>
-      </c>
-      <c r="C2">
-        <v>-150.9768</v>
-      </c>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>8</v>
       </c>
@@ -7793,16 +8808,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3.6505000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-202.13679999999999</v>
-      </c>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E3">
         <v>7</v>
       </c>
@@ -7834,16 +8840,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3.1057000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-93.647300000000001</v>
-      </c>
+    <row r="4" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>6</v>
       </c>
@@ -7875,16 +8872,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2.774</v>
-      </c>
-      <c r="C5">
-        <v>-106.81140000000001</v>
-      </c>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>5</v>
       </c>
@@ -7916,16 +8904,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2.3656000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-73.236800000000002</v>
-      </c>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>4</v>
       </c>
@@ -7957,16 +8936,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1.8996</v>
-      </c>
-      <c r="C7">
-        <v>-53.782200000000003</v>
-      </c>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>3</v>
       </c>
@@ -7998,9 +8968,363 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M48" t="s">
+    <row r="8" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>5.3315999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.99802999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>4.63</v>
+      </c>
+      <c r="D20">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>4.2</v>
+      </c>
+      <c r="D21">
+        <v>0.99577300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3.839</v>
+      </c>
+      <c r="C22">
+        <v>-150.9768</v>
+      </c>
+      <c r="D22">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>3.53</v>
+      </c>
+      <c r="C23">
+        <v>-202.13679999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.99360000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3.073</v>
+      </c>
+      <c r="C24">
+        <v>-93.647300000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.99444200000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>2.64</v>
+      </c>
+      <c r="C25">
+        <v>-106.81140000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2.3069000000000002</v>
+      </c>
+      <c r="C26">
+        <v>-73.236800000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="C27">
+        <v>-53.782200000000003</v>
+      </c>
+      <c r="D27">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1.3754999999999999</v>
+      </c>
+      <c r="C28">
+        <v>-56</v>
+      </c>
+      <c r="D28">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.96492999999999995</v>
+      </c>
+      <c r="C29">
+        <v>-28</v>
+      </c>
+      <c r="D29">
+        <v>0.99419999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>5.5789</v>
+      </c>
+      <c r="D43">
+        <v>0.99802999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>5.1310960000000003</v>
+      </c>
+      <c r="D44">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>4.8319999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>4.2</v>
+      </c>
+      <c r="D46">
+        <v>0.99577300000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>3.839</v>
+      </c>
+      <c r="C47">
+        <v>-150.9768</v>
+      </c>
+      <c r="D47">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="M47" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>3.53</v>
+      </c>
+      <c r="C48">
+        <v>-202.13679999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.99360000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>3.1057000000000001</v>
+      </c>
+      <c r="C49">
+        <v>-93.647300000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.99444200000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2.71</v>
+      </c>
+      <c r="C50">
+        <v>-106.81140000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>2.31</v>
+      </c>
+      <c r="C51">
+        <v>-73.236800000000002</v>
+      </c>
+      <c r="D51">
+        <v>0.99690000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="C52">
+        <v>-53.782200000000003</v>
+      </c>
+      <c r="D52">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>1.48</v>
+      </c>
+      <c r="C53">
+        <v>-56</v>
+      </c>
+      <c r="D53">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C54">
+        <v>-28</v>
+      </c>
+      <c r="D54">
+        <v>0.99419999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -8016,7 +9340,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
